--- a/Успеваемость_СО-ИС-20-1_IT.xlsx
+++ b/Успеваемость_СО-ИС-20-1_IT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/IT-and-IS-development-platforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15CB4F8-7024-B94E-B10D-02F75FB36816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0D925-236F-2D40-9247-8EB3DEB63D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -165,6 +165,21 @@
   <si>
     <t>Дизайн (12)</t>
   </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>Отлично</t>
+  </si>
+  <si>
+    <t>Удовлетворительно</t>
+  </si>
+  <si>
+    <t>Не аттестован</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -184,11 +199,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,7 +417,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +470,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1743,7 +1774,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="183" workbookViewId="0">
       <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD10" sqref="AD10"/>
+      <selection pane="topRight" activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1827,28 +1858,28 @@
       <c r="W1" s="7">
         <v>45022</v>
       </c>
-      <c r="X1" s="38">
+      <c r="X1" s="37">
         <v>45029</v>
       </c>
-      <c r="Y1" s="40">
+      <c r="Y1" s="39">
         <v>45029</v>
       </c>
-      <c r="Z1" s="40">
+      <c r="Z1" s="39">
         <v>45033</v>
       </c>
-      <c r="AA1" s="40">
+      <c r="AA1" s="39">
         <v>45033</v>
       </c>
-      <c r="AB1" s="40">
+      <c r="AB1" s="39">
         <v>45036</v>
       </c>
-      <c r="AC1" s="37">
+      <c r="AC1" s="36">
         <v>45040</v>
       </c>
-      <c r="AD1" s="37">
+      <c r="AD1" s="36">
         <v>45043</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AE1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1922,28 +1953,28 @@
       <c r="W2" s="14">
         <v>10</v>
       </c>
-      <c r="X2" s="39">
-        <v>-15</v>
-      </c>
-      <c r="Y2" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="36">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="36">
+      <c r="X2" s="38">
+        <v>-15</v>
+      </c>
+      <c r="Y2" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="35">
         <v>30</v>
       </c>
-      <c r="AB2" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AC2" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="42">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="36">
+      <c r="AB2" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AC2" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="41">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="35">
         <f t="shared" ref="AE2:AE17" si="0">SUM(M2:AD2)</f>
         <v>165</v>
       </c>
@@ -2018,28 +2049,28 @@
       <c r="W3" s="14">
         <v>0</v>
       </c>
-      <c r="X3" s="39">
-        <v>-15</v>
-      </c>
-      <c r="Y3" s="41">
-        <v>-15</v>
-      </c>
-      <c r="Z3" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AA3" s="36">
+      <c r="X3" s="38">
+        <v>-15</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>-15</v>
+      </c>
+      <c r="Z3" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AA3" s="35">
         <v>-20</v>
       </c>
-      <c r="AB3" s="36">
+      <c r="AB3" s="35">
         <v>0</v>
       </c>
-      <c r="AC3" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AE3" s="36">
+      <c r="AC3" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AE3" s="35">
         <f t="shared" si="0"/>
         <v>-95</v>
       </c>
@@ -2114,28 +2145,28 @@
       <c r="W4" s="14">
         <v>0</v>
       </c>
-      <c r="X4" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AA4" s="36">
+      <c r="X4" s="38">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AA4" s="35">
         <v>30</v>
       </c>
-      <c r="AB4" s="36">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AD4" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AE4" s="36">
+      <c r="AB4" s="35">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AD4" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AE4" s="35">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -2210,28 +2241,28 @@
       <c r="W5" s="14">
         <v>-15</v>
       </c>
-      <c r="X5" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="41">
-        <v>-15</v>
-      </c>
-      <c r="Z5" s="36">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="36">
+      <c r="X5" s="38">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>-15</v>
+      </c>
+      <c r="Z5" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="35">
         <v>30</v>
       </c>
-      <c r="AB5" s="36">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AE5" s="36">
+      <c r="AB5" s="35">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AE5" s="35">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -2306,28 +2337,28 @@
       <c r="W6" s="14">
         <v>0</v>
       </c>
-      <c r="X6" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="36">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="36">
+      <c r="X6" s="38">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="35">
         <v>30</v>
       </c>
-      <c r="AB6" s="36">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD6" s="42">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="36">
+      <c r="AB6" s="35">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="41">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="35">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -2402,28 +2433,28 @@
       <c r="W7" s="14">
         <v>10</v>
       </c>
-      <c r="X7" s="39">
-        <v>-15</v>
-      </c>
-      <c r="Y7" s="41">
-        <v>-15</v>
-      </c>
-      <c r="Z7" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AA7" s="36">
+      <c r="X7" s="38">
+        <v>-15</v>
+      </c>
+      <c r="Y7" s="40">
+        <v>-15</v>
+      </c>
+      <c r="Z7" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AA7" s="35">
         <v>-20</v>
       </c>
-      <c r="AB7" s="36">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AD7" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AE7" s="36">
+      <c r="AB7" s="35">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AD7" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AE7" s="35">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
@@ -2498,28 +2529,28 @@
       <c r="W8" s="14">
         <v>0</v>
       </c>
-      <c r="X8" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="36">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="36">
+      <c r="X8" s="38">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="35">
         <v>30</v>
       </c>
-      <c r="AB8" s="36">
-        <v>10</v>
-      </c>
-      <c r="AC8" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="42">
+      <c r="AB8" s="35">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="41">
         <v>0</v>
       </c>
-      <c r="AE8" s="36">
+      <c r="AE8" s="35">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
@@ -2594,28 +2625,28 @@
       <c r="W9" s="14">
         <v>0</v>
       </c>
-      <c r="X9" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="36">
-        <v>10</v>
-      </c>
-      <c r="AA9" s="36">
+      <c r="X9" s="38">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="35">
         <v>30</v>
       </c>
-      <c r="AB9" s="36">
-        <v>10</v>
-      </c>
-      <c r="AC9" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AD9" s="42">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="36">
+      <c r="AB9" s="35">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AD9" s="41">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="35">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -2690,28 +2721,28 @@
       <c r="W10" s="14">
         <v>-15</v>
       </c>
-      <c r="X10" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="36">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="36">
+      <c r="X10" s="38">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="35">
         <v>30</v>
       </c>
-      <c r="AB10" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AC10" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD10" s="42">
-        <v>10</v>
-      </c>
-      <c r="AE10" s="36">
+      <c r="AB10" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AC10" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="41">
+        <v>10</v>
+      </c>
+      <c r="AE10" s="35">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -2786,30 +2817,30 @@
       <c r="W11" s="14">
         <v>-15</v>
       </c>
-      <c r="X11" s="39">
-        <v>-15</v>
-      </c>
-      <c r="Y11" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AA11" s="36">
+      <c r="X11" s="38">
+        <v>-15</v>
+      </c>
+      <c r="Y11" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AA11" s="35">
         <v>-20</v>
       </c>
-      <c r="AB11" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AC11" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AD11" s="42">
-        <v>10</v>
-      </c>
-      <c r="AE11" s="36">
+      <c r="AB11" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AC11" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="41">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="35">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2882,28 +2913,28 @@
       <c r="W12" s="14">
         <v>-15</v>
       </c>
-      <c r="X12" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="36">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="36">
+      <c r="X12" s="38">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="35">
         <v>30</v>
       </c>
-      <c r="AB12" s="36">
-        <v>10</v>
-      </c>
-      <c r="AC12" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD12" s="42">
-        <v>10</v>
-      </c>
-      <c r="AE12" s="36">
+      <c r="AB12" s="35">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="41">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="35">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
@@ -2978,28 +3009,28 @@
       <c r="W13" s="14">
         <v>10</v>
       </c>
-      <c r="X13" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="36">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="36">
+      <c r="X13" s="38">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="35">
         <v>30</v>
       </c>
-      <c r="AB13" s="36">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD13" s="42">
-        <v>10</v>
-      </c>
-      <c r="AE13" s="36">
+      <c r="AB13" s="35">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="41">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="35">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
@@ -3074,28 +3105,28 @@
       <c r="W14" s="14">
         <v>10</v>
       </c>
-      <c r="X14" s="39">
-        <v>-15</v>
-      </c>
-      <c r="Y14" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AA14" s="36">
+      <c r="X14" s="38">
+        <v>-15</v>
+      </c>
+      <c r="Y14" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AA14" s="35">
         <v>30</v>
       </c>
-      <c r="AB14" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AC14" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD14" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AE14" s="36">
+      <c r="AB14" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AC14" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AE14" s="35">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -3170,28 +3201,28 @@
       <c r="W15" s="14">
         <v>0</v>
       </c>
-      <c r="X15" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="36">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="36">
+      <c r="X15" s="38">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="35">
         <v>30</v>
       </c>
-      <c r="AB15" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AC15" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD15" s="42">
-        <v>10</v>
-      </c>
-      <c r="AE15" s="36">
+      <c r="AB15" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AC15" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="41">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="35">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -3266,28 +3297,28 @@
       <c r="W16" s="14">
         <v>10</v>
       </c>
-      <c r="X16" s="39">
-        <v>-15</v>
-      </c>
-      <c r="Y16" s="41">
-        <v>-15</v>
-      </c>
-      <c r="Z16" s="36">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="36">
+      <c r="X16" s="38">
+        <v>-15</v>
+      </c>
+      <c r="Y16" s="40">
+        <v>-15</v>
+      </c>
+      <c r="Z16" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="35">
         <v>30</v>
       </c>
-      <c r="AB16" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AC16" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD16" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AE16" s="36">
+      <c r="AB16" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AC16" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AE16" s="35">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -3362,28 +3393,28 @@
       <c r="W17" s="14">
         <v>-15</v>
       </c>
-      <c r="X17" s="39">
-        <v>-15</v>
-      </c>
-      <c r="Y17" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AA17" s="36">
+      <c r="X17" s="38">
+        <v>-15</v>
+      </c>
+      <c r="Y17" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AA17" s="35">
         <v>30</v>
       </c>
-      <c r="AB17" s="36">
-        <v>10</v>
-      </c>
-      <c r="AC17" s="42">
-        <v>10</v>
-      </c>
-      <c r="AD17" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AE17" s="36">
+      <c r="AB17" s="35">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AE17" s="35">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
@@ -3412,8 +3443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" zoomScale="188" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3429,7 +3460,7 @@
     <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="19" width="13.5" style="1" customWidth="1"/>
     <col min="20" max="20" width="8.83203125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.83203125" style="1"/>
@@ -3469,665 +3500,741 @@
       <c r="K1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="L1" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29">
-        <v>11</v>
-      </c>
-      <c r="D2" s="31">
+      <c r="C2" s="28">
+        <v>11</v>
+      </c>
+      <c r="D2" s="30">
         <v>12</v>
       </c>
-      <c r="E2" s="31">
-        <v>11</v>
-      </c>
-      <c r="F2" s="31">
+      <c r="E2" s="30">
+        <v>11</v>
+      </c>
+      <c r="F2" s="30">
         <v>12</v>
       </c>
-      <c r="G2" s="31">
-        <v>11</v>
-      </c>
-      <c r="H2" s="30">
-        <v>11</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="29">
-        <f t="shared" ref="K2:K17" si="0">SUM(C2:J2)</f>
-        <v>68</v>
-      </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="G2" s="30">
+        <v>11</v>
+      </c>
+      <c r="H2" s="29">
+        <v>11</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29">
+        <v>20</v>
+      </c>
+      <c r="K2" s="28">
+        <v>91</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29">
-        <v>11</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="29">
+      <c r="C3" s="28">
+        <v>11</v>
+      </c>
+      <c r="D3" s="29">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="28">
+        <f t="shared" ref="K3:K16" si="0">SUM(C3:J3)</f>
+        <v>18</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="28">
+        <v>11</v>
+      </c>
+      <c r="D4" s="29">
+        <v>12</v>
+      </c>
+      <c r="E4" s="30">
+        <v>11</v>
+      </c>
+      <c r="F4" s="29">
+        <v>10</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29">
+        <v>20</v>
+      </c>
+      <c r="K4" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="28">
+        <v>10</v>
+      </c>
+      <c r="D5" s="30">
+        <v>10</v>
+      </c>
+      <c r="E5" s="29">
+        <v>11</v>
+      </c>
+      <c r="F5" s="29">
+        <v>12</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29">
+        <v>18</v>
+      </c>
+      <c r="K5" s="28">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="28">
+        <v>9</v>
+      </c>
+      <c r="D6" s="30">
+        <v>12</v>
+      </c>
+      <c r="E6" s="30">
+        <v>11</v>
+      </c>
+      <c r="F6" s="29">
         <v>7</v>
       </c>
-      <c r="C4" s="29">
-        <v>11</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31">
-        <v>11</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29">
+      <c r="G6" s="29">
+        <v>11</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29">
+        <v>20</v>
+      </c>
+      <c r="K6" s="28">
+        <v>76</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30">
+        <v>9</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30">
+        <v>10</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29">
+        <v>10</v>
+      </c>
+      <c r="K7" s="28">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="29">
-        <v>10</v>
-      </c>
-      <c r="D5" s="31">
-        <v>10</v>
-      </c>
-      <c r="E5" s="30">
-        <v>11</v>
-      </c>
-      <c r="F5" s="30">
+        <v>29</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="28">
+        <v>11</v>
+      </c>
+      <c r="D8" s="30">
         <v>12</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="29">
-        <v>9</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="E8" s="30">
+        <v>11</v>
+      </c>
+      <c r="F8" s="29">
         <v>12</v>
       </c>
-      <c r="E6" s="31">
-        <v>11</v>
-      </c>
-      <c r="F6" s="30">
-        <v>7</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31">
-        <v>9</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31">
-        <v>10</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="29">
-        <v>11</v>
-      </c>
-      <c r="D8" s="31">
-        <v>12</v>
-      </c>
-      <c r="E8" s="31">
-        <v>11</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30">
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29">
         <v>20</v>
       </c>
-      <c r="K8" s="29">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="29">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30">
-        <v>12</v>
-      </c>
-      <c r="E9" s="30">
-        <v>11</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="29">
-        <v>11</v>
-      </c>
-      <c r="D10" s="30">
-        <v>12</v>
-      </c>
-      <c r="E10" s="30">
-        <v>11</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="29">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="29">
-        <v>9</v>
-      </c>
-      <c r="D11" s="31">
-        <v>12</v>
-      </c>
-      <c r="E11" s="31">
-        <v>11</v>
-      </c>
-      <c r="F11" s="31">
-        <v>12</v>
-      </c>
-      <c r="G11" s="30">
-        <v>11</v>
-      </c>
-      <c r="H11" s="30">
-        <v>11</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="29">
+      <c r="K8" s="28">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="L8" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="28">
+        <v>11</v>
+      </c>
+      <c r="D9" s="29">
+        <v>12</v>
+      </c>
+      <c r="E9" s="29">
+        <v>11</v>
+      </c>
+      <c r="F9" s="29">
+        <v>6</v>
+      </c>
+      <c r="G9" s="29">
+        <v>5</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
+        <v>10</v>
+      </c>
+      <c r="K9" s="28">
+        <v>61</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="28">
+        <v>11</v>
+      </c>
+      <c r="D10" s="29">
+        <v>12</v>
+      </c>
+      <c r="E10" s="29">
+        <v>11</v>
+      </c>
+      <c r="F10" s="29">
+        <v>12</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29">
+        <v>20</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="28">
+        <v>9</v>
+      </c>
+      <c r="D11" s="30">
+        <v>12</v>
+      </c>
+      <c r="E11" s="30">
+        <v>11</v>
+      </c>
+      <c r="F11" s="30">
+        <v>12</v>
+      </c>
+      <c r="G11" s="29">
+        <v>11</v>
+      </c>
+      <c r="H11" s="29">
+        <v>11</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29">
+        <v>20</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="29">
-        <v>11</v>
-      </c>
-      <c r="D12" s="31">
-        <v>10</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="C12" s="28">
+        <v>11</v>
+      </c>
+      <c r="D12" s="30">
+        <v>10</v>
+      </c>
+      <c r="E12" s="30">
         <v>9</v>
       </c>
-      <c r="F12" s="31">
-        <v>10</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29">
+      <c r="F12" s="30">
+        <v>10</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29">
+        <v>18</v>
+      </c>
+      <c r="K12" s="28">
+        <v>61</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="28">
+        <v>11</v>
+      </c>
+      <c r="D13" s="30">
+        <v>12</v>
+      </c>
+      <c r="E13" s="30">
+        <v>11</v>
+      </c>
+      <c r="F13" s="30">
+        <v>12</v>
+      </c>
+      <c r="G13" s="29">
+        <v>11</v>
+      </c>
+      <c r="H13" s="29">
+        <v>11</v>
+      </c>
+      <c r="I13" s="29">
+        <v>12</v>
+      </c>
+      <c r="J13" s="29">
+        <v>20</v>
+      </c>
+      <c r="K13" s="28">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+        <v>100</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="30">
+        <v>10</v>
+      </c>
+      <c r="E14" s="29">
+        <v>11</v>
+      </c>
+      <c r="F14" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="G14" s="29">
+        <v>11</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29">
+        <v>10</v>
+      </c>
+      <c r="K14" s="28">
+        <v>61</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="28">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30">
+        <v>12</v>
+      </c>
+      <c r="E15" s="30">
+        <v>11</v>
+      </c>
+      <c r="F15" s="29">
+        <v>12</v>
+      </c>
+      <c r="G15" s="29">
+        <v>11</v>
+      </c>
+      <c r="H15" s="29">
+        <v>11</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29">
+        <v>20</v>
+      </c>
+      <c r="K15" s="28">
+        <v>91</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="30">
+        <v>9</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30">
+        <v>10</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29">
+        <v>10</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="C13" s="29">
-        <v>11</v>
-      </c>
-      <c r="D13" s="31">
-        <v>12</v>
-      </c>
-      <c r="E13" s="31">
-        <v>11</v>
-      </c>
-      <c r="F13" s="31">
-        <v>12</v>
-      </c>
-      <c r="G13" s="30">
-        <v>11</v>
-      </c>
-      <c r="H13" s="30">
-        <v>11</v>
-      </c>
-      <c r="I13" s="30">
-        <v>12</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="29">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="31">
-        <v>10</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="B17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="28">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30">
+        <v>10</v>
+      </c>
+      <c r="E17" s="30">
+        <v>9</v>
+      </c>
+      <c r="F17" s="30">
+        <v>10</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29">
         <v>18</v>
       </c>
-      <c r="C15" s="29">
-        <v>11</v>
-      </c>
-      <c r="D15" s="31">
-        <v>12</v>
-      </c>
-      <c r="E15" s="31">
-        <v>11</v>
-      </c>
-      <c r="F15" s="30">
-        <v>12</v>
-      </c>
-      <c r="G15" s="30">
-        <v>11</v>
-      </c>
-      <c r="H15" s="30">
-        <v>11</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30">
-        <v>20</v>
-      </c>
-      <c r="K15" s="29">
-        <v>91</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="31">
-        <v>9</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31">
-        <v>10</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="29">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="29">
-        <v>11</v>
-      </c>
-      <c r="D17" s="31">
-        <v>10</v>
-      </c>
-      <c r="E17" s="31">
-        <v>9</v>
-      </c>
-      <c r="F17" s="31">
-        <v>10</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="29">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
+      <c r="K17" s="28">
+        <v>61</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K17">
@@ -4163,11 +4270,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="216" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD8" sqref="AD8"/>
+      <selection pane="topRight" activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4183,7 +4290,7 @@
     <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4247,36 +4354,39 @@
       <c r="U1" s="3">
         <v>45007</v>
       </c>
-      <c r="V1" s="23">
+      <c r="V1" s="22">
         <v>45019</v>
       </c>
-      <c r="W1" s="23">
+      <c r="W1" s="22">
         <v>45020</v>
       </c>
-      <c r="X1" s="23">
+      <c r="X1" s="22">
         <v>45021</v>
       </c>
-      <c r="Y1" s="32">
+      <c r="Y1" s="31">
         <v>45027</v>
       </c>
-      <c r="Z1" s="37">
+      <c r="Z1" s="36">
         <v>45033</v>
       </c>
-      <c r="AA1" s="37">
+      <c r="AA1" s="36">
         <v>45034</v>
       </c>
-      <c r="AB1" s="37">
+      <c r="AB1" s="36">
         <v>45035</v>
       </c>
-      <c r="AC1" s="37">
+      <c r="AC1" s="36">
         <v>45041</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AD1" s="36">
+        <v>45048</v>
+      </c>
+      <c r="AE1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+    <row r="2" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -4348,28 +4458,31 @@
       <c r="X2" s="12">
         <v>-15</v>
       </c>
-      <c r="Y2" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="34">
+      <c r="Y2" s="32">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="33">
         <v>30</v>
       </c>
-      <c r="AA2" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB2" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AC2" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AD2" s="36">
-        <f t="shared" ref="AD2:AD13" si="0">SUM(L2:AC2)</f>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+      <c r="AA2" s="33">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AC2" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AD2" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="35">
+        <f t="shared" ref="AE2:AE13" si="0">SUM(L2:AD2)</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -4441,28 +4554,31 @@
       <c r="X3" s="12">
         <v>10</v>
       </c>
-      <c r="Y3" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="34">
+      <c r="Y3" s="32">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="33">
         <v>30</v>
       </c>
-      <c r="AA3" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB3" s="34">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="34">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="36">
+      <c r="AA3" s="33">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="33">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="35">
         <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -4534,28 +4650,31 @@
       <c r="X4" s="12">
         <v>-15</v>
       </c>
-      <c r="Y4" s="33">
-        <v>-15</v>
-      </c>
-      <c r="Z4" s="34">
+      <c r="Y4" s="32">
+        <v>-15</v>
+      </c>
+      <c r="Z4" s="33">
         <v>30</v>
       </c>
-      <c r="AA4" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AB4" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AC4" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AD4" s="36">
+      <c r="AA4" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AB4" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AC4" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AD4" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="35">
         <f t="shared" si="0"/>
-        <v>-85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -4627,28 +4746,31 @@
       <c r="X5" s="12">
         <v>-15</v>
       </c>
-      <c r="Y5" s="33">
-        <v>-15</v>
-      </c>
-      <c r="Z5" s="34">
+      <c r="Y5" s="32">
+        <v>-15</v>
+      </c>
+      <c r="Z5" s="33">
         <v>-20</v>
       </c>
-      <c r="AA5" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AB5" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AC5" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AD5" s="36">
+      <c r="AA5" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AB5" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AC5" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AD5" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="35">
         <f t="shared" si="0"/>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -4720,28 +4842,31 @@
       <c r="X6" s="12">
         <v>-15</v>
       </c>
-      <c r="Y6" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="34">
+      <c r="Y6" s="32">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="33">
         <v>30</v>
       </c>
-      <c r="AA6" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB6" s="34">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>10</v>
-      </c>
-      <c r="AD6" s="36">
+      <c r="AA6" s="33">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="33">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="35">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -4813,28 +4938,31 @@
       <c r="X7" s="12">
         <v>10</v>
       </c>
-      <c r="Y7" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="34">
+      <c r="Y7" s="32">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="33">
         <v>30</v>
       </c>
-      <c r="AA7" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AC7" s="34">
-        <v>10</v>
-      </c>
-      <c r="AD7" s="36">
+      <c r="AA7" s="33">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AC7" s="33">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="35">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+    <row r="8" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -4906,28 +5034,31 @@
       <c r="X8" s="12">
         <v>10</v>
       </c>
-      <c r="Y8" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="34">
+      <c r="Y8" s="32">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="33">
         <v>30</v>
       </c>
-      <c r="AA8" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AC8" s="34">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="36">
+      <c r="AA8" s="33">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AC8" s="33">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="35">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+    <row r="9" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -4999,28 +5130,31 @@
       <c r="X9" s="12">
         <v>-15</v>
       </c>
-      <c r="Y9" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="34">
+      <c r="Y9" s="32">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="33">
         <v>0</v>
       </c>
-      <c r="AA9" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AC9" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AD9" s="36">
+      <c r="AA9" s="33">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AC9" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AD9" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="35">
         <f t="shared" si="0"/>
-        <v>-65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -5092,28 +5226,31 @@
       <c r="X10" s="12">
         <v>10</v>
       </c>
-      <c r="Y10" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="34">
+      <c r="Y10" s="32">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="33">
         <v>30</v>
       </c>
-      <c r="AA10" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AC10" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AD10" s="36">
+      <c r="AA10" s="33">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AC10" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AD10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="35">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
+    <row r="11" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -5185,28 +5322,31 @@
       <c r="X11" s="12">
         <v>-15</v>
       </c>
-      <c r="Y11" s="33">
-        <v>-15</v>
-      </c>
-      <c r="Z11" s="43">
+      <c r="Y11" s="32">
+        <v>-15</v>
+      </c>
+      <c r="Z11" s="42">
         <v>30</v>
       </c>
-      <c r="AA11" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="34">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AD11" s="36">
+      <c r="AA11" s="33">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AD11" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AE11" s="35">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -5278,28 +5418,31 @@
       <c r="X12" s="12">
         <v>-15</v>
       </c>
-      <c r="Y12" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="43">
+      <c r="Y12" s="32">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="42">
         <v>30</v>
       </c>
-      <c r="AA12" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="34">
+      <c r="AA12" s="33">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="33">
         <v>0</v>
       </c>
-      <c r="AC12" s="34">
-        <v>10</v>
-      </c>
-      <c r="AD12" s="36">
+      <c r="AC12" s="33">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="33">
+        <v>-15</v>
+      </c>
+      <c r="AE12" s="35">
         <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -5371,156 +5514,163 @@
       <c r="X13" s="12">
         <v>10</v>
       </c>
-      <c r="Y13" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="43">
+      <c r="Y13" s="32">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="42">
         <v>30</v>
       </c>
-      <c r="AA13" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="34">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="34">
-        <v>10</v>
-      </c>
-      <c r="AD13" s="36">
+      <c r="AA13" s="33">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="33">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="35">
         <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-    </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-    </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-    </row>
-    <row r="17" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+    </row>
+    <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+    </row>
+    <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+    </row>
+    <row r="17" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AD2:AD13">
+  <conditionalFormatting sqref="AE2:AE13">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5543,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5560,7 +5710,8 @@
     <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12" max="21" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="13.5" style="1" customWidth="1"/>
     <col min="22" max="22" width="8.83203125" style="1" customWidth="1"/>
     <col min="23" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -5599,472 +5750,544 @@
       <c r="K1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="L1" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="29">
-        <v>11</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="C2" s="28">
+        <v>11</v>
+      </c>
+      <c r="D2" s="28">
         <v>12</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="29">
+      <c r="E2" s="29">
+        <v>11</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29">
+        <v>11</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29">
+        <v>20</v>
+      </c>
+      <c r="K2" s="28">
         <f t="shared" ref="K2:K13" si="0">SUM(C2:J2)</f>
+        <v>65</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-    </row>
-    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="29">
-        <v>11</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="C3" s="28">
+        <v>11</v>
+      </c>
+      <c r="D3" s="28">
         <v>12</v>
       </c>
-      <c r="E3" s="31">
-        <v>11</v>
-      </c>
-      <c r="F3" s="31">
+      <c r="E3" s="30">
+        <v>11</v>
+      </c>
+      <c r="F3" s="30">
         <v>12</v>
       </c>
-      <c r="G3" s="31">
-        <v>11</v>
-      </c>
-      <c r="H3" s="31">
-        <v>11</v>
-      </c>
-      <c r="I3" s="30">
+      <c r="G3" s="30">
+        <v>11</v>
+      </c>
+      <c r="H3" s="30">
+        <v>11</v>
+      </c>
+      <c r="I3" s="29">
         <v>12</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="29">
+      <c r="J3" s="29">
+        <v>20</v>
+      </c>
+      <c r="K3" s="28">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30">
-        <v>11</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29">
+        <v>11</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29">
+        <v>10</v>
+      </c>
+      <c r="K4" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29">
+      <c r="C5" s="28">
+        <v>11</v>
+      </c>
+      <c r="D5" s="28">
+        <v>12</v>
+      </c>
+      <c r="E5" s="29">
+        <v>11</v>
+      </c>
+      <c r="F5" s="29">
+        <v>5</v>
+      </c>
+      <c r="G5" s="29">
+        <v>11</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29">
+        <v>20</v>
+      </c>
+      <c r="K5" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="29">
-        <v>11</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="C6" s="28">
+        <v>11</v>
+      </c>
+      <c r="D6" s="28">
         <v>12</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>9</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29">
+      <c r="F6" s="29">
+        <v>5</v>
+      </c>
+      <c r="G6" s="29">
+        <v>9</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29">
+        <v>10</v>
+      </c>
+      <c r="J6" s="29">
+        <v>20</v>
+      </c>
+      <c r="K6" s="28">
         <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="28">
+        <v>11</v>
+      </c>
+      <c r="D7" s="28">
+        <v>12</v>
+      </c>
+      <c r="E7" s="30">
+        <v>11</v>
+      </c>
+      <c r="F7" s="30">
+        <v>12</v>
+      </c>
+      <c r="G7" s="30">
+        <v>11</v>
+      </c>
+      <c r="H7" s="29">
+        <v>11</v>
+      </c>
+      <c r="I7" s="29">
+        <v>12</v>
+      </c>
+      <c r="J7" s="29">
+        <v>20</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="28">
+        <v>11</v>
+      </c>
+      <c r="D8" s="28">
+        <v>12</v>
+      </c>
+      <c r="E8" s="30">
+        <v>11</v>
+      </c>
+      <c r="F8" s="30">
+        <v>12</v>
+      </c>
+      <c r="G8" s="29">
+        <v>11</v>
+      </c>
+      <c r="H8" s="29">
+        <v>11</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29">
+        <v>20</v>
+      </c>
+      <c r="K8" s="28">
+        <v>91</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="28">
+        <v>11</v>
+      </c>
+      <c r="D9" s="28">
+        <v>12</v>
+      </c>
+      <c r="E9" s="29">
+        <v>11</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
+        <v>11</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
+        <v>20</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="28">
+        <v>11</v>
+      </c>
+      <c r="D10" s="28">
+        <v>12</v>
+      </c>
+      <c r="E10" s="30">
+        <v>11</v>
+      </c>
+      <c r="F10" s="30">
+        <v>12</v>
+      </c>
+      <c r="G10" s="30">
+        <v>11</v>
+      </c>
+      <c r="H10" s="30">
+        <v>11</v>
+      </c>
+      <c r="I10" s="29">
+        <v>12</v>
+      </c>
+      <c r="J10" s="29">
+        <v>20</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-    </row>
-    <row r="7" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="29">
-        <v>11</v>
-      </c>
-      <c r="D7" s="29">
-        <v>12</v>
-      </c>
-      <c r="E7" s="31">
-        <v>11</v>
-      </c>
-      <c r="F7" s="31">
-        <v>12</v>
-      </c>
-      <c r="G7" s="31">
-        <v>11</v>
-      </c>
-      <c r="H7" s="30">
-        <v>11</v>
-      </c>
-      <c r="I7" s="30">
-        <v>12</v>
-      </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-    </row>
-    <row r="8" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="29">
-        <v>11</v>
-      </c>
-      <c r="D8" s="29">
-        <v>12</v>
-      </c>
-      <c r="E8" s="31">
-        <v>11</v>
-      </c>
-      <c r="F8" s="31">
-        <v>12</v>
-      </c>
-      <c r="G8" s="30">
-        <v>11</v>
-      </c>
-      <c r="H8" s="30">
-        <v>11</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="29">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-    </row>
-    <row r="9" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="C11" s="28">
+        <v>9</v>
+      </c>
+      <c r="D11" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="29">
-        <v>11</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-    </row>
-    <row r="10" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="29">
-        <v>11</v>
-      </c>
-      <c r="D10" s="29">
-        <v>12</v>
-      </c>
-      <c r="E10" s="31">
-        <v>11</v>
-      </c>
-      <c r="F10" s="31">
-        <v>12</v>
-      </c>
-      <c r="G10" s="31">
-        <v>11</v>
-      </c>
-      <c r="H10" s="31">
-        <v>11</v>
-      </c>
-      <c r="I10" s="30">
-        <v>12</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="29">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-    </row>
-    <row r="11" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="29">
-        <v>9</v>
-      </c>
-      <c r="D11" s="29">
-        <v>8</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="29">
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="28">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
+      <c r="L11" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>6</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>12</v>
       </c>
-      <c r="E12" s="31">
-        <v>11</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="E12" s="30">
+        <v>11</v>
+      </c>
+      <c r="F12" s="29">
         <v>12</v>
       </c>
-      <c r="G12" s="30">
-        <v>11</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29">
+      <c r="G12" s="29">
+        <v>11</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29">
+        <v>20</v>
+      </c>
+      <c r="K12" s="28">
+        <v>76</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="28">
+        <v>11</v>
+      </c>
+      <c r="D13" s="28">
+        <v>12</v>
+      </c>
+      <c r="E13" s="30">
+        <v>11</v>
+      </c>
+      <c r="F13" s="30">
+        <v>12</v>
+      </c>
+      <c r="G13" s="30">
+        <v>11</v>
+      </c>
+      <c r="H13" s="30">
+        <v>11</v>
+      </c>
+      <c r="I13" s="29">
+        <v>12</v>
+      </c>
+      <c r="J13" s="29">
+        <v>20</v>
+      </c>
+      <c r="K13" s="28">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-    </row>
-    <row r="13" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="29">
-        <v>11</v>
-      </c>
-      <c r="D13" s="29">
-        <v>12</v>
-      </c>
-      <c r="E13" s="31">
-        <v>11</v>
-      </c>
-      <c r="F13" s="31">
-        <v>12</v>
-      </c>
-      <c r="G13" s="31">
-        <v>11</v>
-      </c>
-      <c r="H13" s="31">
-        <v>11</v>
-      </c>
-      <c r="I13" s="30">
-        <v>12</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="29">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K13">

--- a/Успеваемость_СО-ИС-20-1_IT.xlsx
+++ b/Успеваемость_СО-ИС-20-1_IT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/IT-and-IS-development-platforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/IT-and-IS-development-platforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0D925-236F-2D40-9247-8EB3DEB63D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839F74AB-C6A8-1744-85EB-7E3159F7444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -481,7 +480,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -3443,8 +3442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="188" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="188" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3718,21 +3717,27 @@
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="30">
-        <v>9</v>
-      </c>
-      <c r="E7" s="29"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="29">
+        <v>11</v>
+      </c>
       <c r="F7" s="30">
         <v>10</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="29">
+        <v>11</v>
+      </c>
+      <c r="H7" s="29">
+        <v>7</v>
+      </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29">
         <v>10</v>
       </c>
       <c r="K7" s="28">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="L7" s="45" t="s">
         <v>47</v>
@@ -4086,21 +4091,27 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="30">
-        <v>9</v>
-      </c>
-      <c r="E16" s="29"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="29">
+        <v>11</v>
+      </c>
       <c r="F16" s="30">
         <v>10</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="29">
+        <v>11</v>
+      </c>
+      <c r="H16" s="29">
+        <v>7</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29">
         <v>10</v>
       </c>
       <c r="K16" s="28">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="L16" s="45" t="s">
         <v>47</v>
@@ -5693,8 +5704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5861,20 +5872,28 @@
         <v>24</v>
       </c>
       <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="28">
+        <v>12</v>
+      </c>
       <c r="E4" s="29">
         <v>11</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="29">
+        <v>12</v>
+      </c>
+      <c r="G4" s="29">
+        <v>11</v>
+      </c>
+      <c r="H4" s="29">
+        <v>6</v>
+      </c>
       <c r="I4" s="29"/>
       <c r="J4" s="29">
         <v>10</v>
       </c>
       <c r="K4" s="28">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="L4" s="45" t="s">
         <v>47</v>

--- a/Успеваемость_СО-ИС-20-1_IT.xlsx
+++ b/Успеваемость_СО-ИС-20-1_IT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/IT-and-IS-development-platforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839F74AB-C6A8-1744-85EB-7E3159F7444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE11726-4467-5E42-82D0-A5CC9423B7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3443,7 +3443,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3566,15 +3566,23 @@
       <c r="D3" s="29">
         <v>7</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="E3" s="29">
+        <v>11</v>
+      </c>
+      <c r="F3" s="29">
+        <v>12</v>
+      </c>
+      <c r="G3" s="29">
+        <v>11</v>
+      </c>
+      <c r="H3" s="29">
+        <v>11</v>
+      </c>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28">
         <f t="shared" ref="K3:K16" si="0">SUM(C3:J3)</f>
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>47</v>
